--- a/Code/Results/Cases/Case_4_162/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_162/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.033044146350303</v>
+        <v>1.071944773141773</v>
       </c>
       <c r="D2">
-        <v>1.041369009612235</v>
+        <v>1.065553645872923</v>
       </c>
       <c r="E2">
-        <v>1.048456369860727</v>
+        <v>1.08564895773982</v>
       </c>
       <c r="F2">
-        <v>1.050816416820991</v>
+        <v>1.09286200330311</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054616464102886</v>
+        <v>1.05260349743665</v>
       </c>
       <c r="J2">
-        <v>1.054279514437086</v>
+        <v>1.076866809375162</v>
       </c>
       <c r="K2">
-        <v>1.052280592821005</v>
+        <v>1.068266574889631</v>
       </c>
       <c r="L2">
-        <v>1.059279514995177</v>
+        <v>1.088308842025091</v>
       </c>
       <c r="M2">
-        <v>1.061610442096961</v>
+        <v>1.095503360871276</v>
       </c>
       <c r="N2">
-        <v>1.055776712275136</v>
+        <v>1.078396083762825</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.04038043894443</v>
+        <v>1.073394417564274</v>
       </c>
       <c r="D3">
-        <v>1.046885367799818</v>
+        <v>1.066647634065784</v>
       </c>
       <c r="E3">
-        <v>1.055641485002648</v>
+        <v>1.087126625846894</v>
       </c>
       <c r="F3">
-        <v>1.058590350741827</v>
+        <v>1.09448179813807</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057345045063995</v>
+        <v>1.05306110335575</v>
       </c>
       <c r="J3">
-        <v>1.059827711213104</v>
+        <v>1.077972225130458</v>
       </c>
       <c r="K3">
-        <v>1.056951529957389</v>
+        <v>1.069175288265812</v>
       </c>
       <c r="L3">
-        <v>1.065608682085839</v>
+        <v>1.089604159099629</v>
       </c>
       <c r="M3">
-        <v>1.068524671966761</v>
+        <v>1.096941821713494</v>
       </c>
       <c r="N3">
-        <v>1.061332788126965</v>
+        <v>1.079503069335286</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.044987745382622</v>
+        <v>1.074331094205834</v>
       </c>
       <c r="D4">
-        <v>1.0503518333992</v>
+        <v>1.067354243437833</v>
       </c>
       <c r="E4">
-        <v>1.06015917980432</v>
+        <v>1.08808179810815</v>
       </c>
       <c r="F4">
-        <v>1.063480084676895</v>
+        <v>1.095529171945591</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059047045015463</v>
+        <v>1.053355264646675</v>
       </c>
       <c r="J4">
-        <v>1.063306698052074</v>
+        <v>1.078685694945682</v>
       </c>
       <c r="K4">
-        <v>1.059878286988507</v>
+        <v>1.069761419457152</v>
       </c>
       <c r="L4">
-        <v>1.06958195809081</v>
+        <v>1.090440816118226</v>
       </c>
       <c r="M4">
-        <v>1.072868286167655</v>
+        <v>1.097871363299531</v>
       </c>
       <c r="N4">
-        <v>1.064816715526291</v>
+        <v>1.080217552359484</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.046893040838603</v>
+        <v>1.074724558930572</v>
       </c>
       <c r="D5">
-        <v>1.051785759195343</v>
+        <v>1.067651001250119</v>
       </c>
       <c r="E5">
-        <v>1.06202865392046</v>
+        <v>1.088483124836999</v>
       </c>
       <c r="F5">
-        <v>1.065503971915022</v>
+        <v>1.095969317460608</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059748052875042</v>
+        <v>1.053478467872524</v>
       </c>
       <c r="J5">
-        <v>1.064744054844269</v>
+        <v>1.078985209890603</v>
       </c>
       <c r="K5">
-        <v>1.061086949985249</v>
+        <v>1.070007386106912</v>
       </c>
       <c r="L5">
-        <v>1.07122464581949</v>
+        <v>1.090792193550103</v>
       </c>
       <c r="M5">
-        <v>1.074664830067714</v>
+        <v>1.098261852506322</v>
       </c>
       <c r="N5">
-        <v>1.066256113529999</v>
+        <v>1.080517492649981</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.047211145140431</v>
+        <v>1.074790605162818</v>
       </c>
       <c r="D6">
-        <v>1.052025186119036</v>
+        <v>1.067700810678897</v>
       </c>
       <c r="E6">
-        <v>1.062340849106423</v>
+        <v>1.088550496194291</v>
       </c>
       <c r="F6">
-        <v>1.065841981166988</v>
+        <v>1.096043210042059</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059864923620294</v>
+        <v>1.053499127201512</v>
       </c>
       <c r="J6">
-        <v>1.064983953138644</v>
+        <v>1.079035474831022</v>
       </c>
       <c r="K6">
-        <v>1.061288646443752</v>
+        <v>1.07004865913612</v>
       </c>
       <c r="L6">
-        <v>1.071498880231152</v>
+        <v>1.090851170826319</v>
       </c>
       <c r="M6">
-        <v>1.074964793855737</v>
+        <v>1.098327400540125</v>
       </c>
       <c r="N6">
-        <v>1.066496352507468</v>
+        <v>1.080567828972381</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.045013325938025</v>
+        <v>1.074336352926749</v>
       </c>
       <c r="D7">
-        <v>1.050371083823856</v>
+        <v>1.06735820990678</v>
       </c>
       <c r="E7">
-        <v>1.060184274581466</v>
+        <v>1.088087161542272</v>
       </c>
       <c r="F7">
-        <v>1.063507250363273</v>
+        <v>1.095535053852327</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059056468050183</v>
+        <v>1.053356912707372</v>
       </c>
       <c r="J7">
-        <v>1.063326001396953</v>
+        <v>1.078689698753554</v>
       </c>
       <c r="K7">
-        <v>1.059894521192093</v>
+        <v>1.069764707810813</v>
       </c>
       <c r="L7">
-        <v>1.069604014552489</v>
+        <v>1.090445512621158</v>
       </c>
       <c r="M7">
-        <v>1.072892405495742</v>
+        <v>1.097876582167184</v>
       </c>
       <c r="N7">
-        <v>1.064836046284133</v>
+        <v>1.080221561853222</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.035553580108399</v>
+        <v>1.072434968819754</v>
       </c>
       <c r="D8">
-        <v>1.043255416666434</v>
+        <v>1.06592363069829</v>
       </c>
       <c r="E8">
-        <v>1.0509129402606</v>
+        <v>1.086148548919176</v>
       </c>
       <c r="F8">
-        <v>1.053473935017258</v>
+        <v>1.093409578449149</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.055552208795524</v>
+        <v>1.052758550671624</v>
       </c>
       <c r="J8">
-        <v>1.056178418873764</v>
+        <v>1.077240767258536</v>
       </c>
       <c r="K8">
-        <v>1.053879688466065</v>
+        <v>1.068574067899686</v>
       </c>
       <c r="L8">
-        <v>1.061444751710898</v>
+        <v>1.088746914564413</v>
       </c>
       <c r="M8">
-        <v>1.063975195700864</v>
+        <v>1.095989755856039</v>
       </c>
       <c r="N8">
-        <v>1.057678313373923</v>
+        <v>1.078770572709287</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.017722051436343</v>
+        <v>1.069073920698476</v>
       </c>
       <c r="D9">
-        <v>1.029864411621207</v>
+        <v>1.063385768519854</v>
       </c>
       <c r="E9">
-        <v>1.033482066720128</v>
+        <v>1.08272468937009</v>
       </c>
       <c r="F9">
-        <v>1.034623963207983</v>
+        <v>1.089658217309772</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048855202057981</v>
+        <v>1.051689194345187</v>
       </c>
       <c r="J9">
-        <v>1.042664153651299</v>
+        <v>1.07467348790553</v>
       </c>
       <c r="K9">
-        <v>1.042490853718657</v>
+        <v>1.066461524273191</v>
       </c>
       <c r="L9">
-        <v>1.046054312154172</v>
+        <v>1.08574201807699</v>
       </c>
       <c r="M9">
-        <v>1.047179201771633</v>
+        <v>1.092655147966015</v>
       </c>
       <c r="N9">
-        <v>1.044144856344734</v>
+        <v>1.076199647525128</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.004908263723853</v>
+        <v>1.066825693902878</v>
       </c>
       <c r="D10">
-        <v>1.020264214495486</v>
+        <v>1.061686899753212</v>
       </c>
       <c r="E10">
-        <v>1.020990786236498</v>
+        <v>1.080436483882926</v>
       </c>
       <c r="F10">
-        <v>1.021123014323654</v>
+        <v>1.087152823993632</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043984248029694</v>
+        <v>1.050966079381606</v>
       </c>
       <c r="J10">
-        <v>1.032928487984036</v>
+        <v>1.072952181588993</v>
       </c>
       <c r="K10">
-        <v>1.034276983908498</v>
+        <v>1.065043164462324</v>
       </c>
       <c r="L10">
-        <v>1.034991113447934</v>
+        <v>1.083730483649676</v>
       </c>
       <c r="M10">
-        <v>1.035121079651381</v>
+        <v>1.090425091971111</v>
       </c>
       <c r="N10">
-        <v>1.034395364915527</v>
+        <v>1.074475896756185</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9991020831820632</v>
+        <v>1.06585030648002</v>
       </c>
       <c r="D11">
-        <v>1.015921503523861</v>
+        <v>1.060949558945749</v>
       </c>
       <c r="E11">
-        <v>1.015339880451699</v>
+        <v>1.079444239206645</v>
       </c>
       <c r="F11">
-        <v>1.015016580457879</v>
+        <v>1.086066796232749</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041764223376936</v>
+        <v>1.050650507337453</v>
       </c>
       <c r="J11">
-        <v>1.02851226431157</v>
+        <v>1.072204443389148</v>
       </c>
       <c r="K11">
-        <v>1.030549282637252</v>
+        <v>1.064426569507301</v>
       </c>
       <c r="L11">
-        <v>1.029978193452523</v>
+        <v>1.082857422504758</v>
       </c>
       <c r="M11">
-        <v>1.029660755597488</v>
+        <v>1.089457704933295</v>
       </c>
       <c r="N11">
-        <v>1.029972869698898</v>
+        <v>1.07372709668233</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9969029290236727</v>
+        <v>1.06548771190319</v>
       </c>
       <c r="D12">
-        <v>1.014277942811747</v>
+        <v>1.06067541408102</v>
       </c>
       <c r="E12">
-        <v>1.013201000276805</v>
+        <v>1.079075451645404</v>
       </c>
       <c r="F12">
-        <v>1.012705418846816</v>
+        <v>1.085663211739821</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040921521562431</v>
+        <v>1.050532917524617</v>
       </c>
       <c r="J12">
-        <v>1.026838943287988</v>
+        <v>1.071926333063435</v>
       </c>
       <c r="K12">
-        <v>1.029136618592493</v>
+        <v>1.064197167634204</v>
       </c>
       <c r="L12">
-        <v>1.028079585984193</v>
+        <v>1.08253281298171</v>
       </c>
       <c r="M12">
-        <v>1.027593185145385</v>
+        <v>1.089098102208616</v>
       </c>
       <c r="N12">
-        <v>1.02829717236753</v>
+        <v>1.073448591408054</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9973766432948862</v>
+        <v>1.065565503029176</v>
       </c>
       <c r="D13">
-        <v>1.014631916731758</v>
+        <v>1.060734231102331</v>
       </c>
       <c r="E13">
-        <v>1.013661663577863</v>
+        <v>1.07915456807951</v>
       </c>
       <c r="F13">
-        <v>1.013203182082539</v>
+        <v>1.085749790515791</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041103127398502</v>
+        <v>1.050558157833711</v>
       </c>
       <c r="J13">
-        <v>1.027199415906284</v>
+        <v>1.071986005384659</v>
       </c>
       <c r="K13">
-        <v>1.0294409490806</v>
+        <v>1.064246391987952</v>
       </c>
       <c r="L13">
-        <v>1.028488554683742</v>
+        <v>1.082602457230898</v>
       </c>
       <c r="M13">
-        <v>1.028038527639235</v>
+        <v>1.089175250655764</v>
       </c>
       <c r="N13">
-        <v>1.028658156898291</v>
+        <v>1.073508348470819</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9989211905426845</v>
+        <v>1.065820340309101</v>
       </c>
       <c r="D14">
-        <v>1.015786284261723</v>
+        <v>1.060926903455277</v>
       </c>
       <c r="E14">
-        <v>1.015163915498471</v>
+        <v>1.079413759721132</v>
       </c>
       <c r="F14">
-        <v>1.01482643949159</v>
+        <v>1.086033439646195</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041694943263375</v>
+        <v>1.050640794938851</v>
       </c>
       <c r="J14">
-        <v>1.028374636529573</v>
+        <v>1.072181462227554</v>
       </c>
       <c r="K14">
-        <v>1.030433097777999</v>
+        <v>1.064407614675921</v>
       </c>
       <c r="L14">
-        <v>1.029822020084244</v>
+        <v>1.082830596663343</v>
       </c>
       <c r="M14">
-        <v>1.029490674131192</v>
+        <v>1.089427985657098</v>
       </c>
       <c r="N14">
-        <v>1.029835046469664</v>
+        <v>1.073704082884849</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9998670869935792</v>
+        <v>1.065977314993051</v>
       </c>
       <c r="D15">
-        <v>1.016493405902246</v>
+        <v>1.061045580153263</v>
       </c>
       <c r="E15">
-        <v>1.016084104788733</v>
+        <v>1.079573426365808</v>
       </c>
       <c r="F15">
-        <v>1.015820765938792</v>
+        <v>1.086208180403114</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042057138059515</v>
+        <v>1.050691660964264</v>
       </c>
       <c r="J15">
-        <v>1.029094273984727</v>
+        <v>1.072301840810072</v>
       </c>
       <c r="K15">
-        <v>1.031040604092378</v>
+        <v>1.064506899973616</v>
       </c>
       <c r="L15">
-        <v>1.030638662472786</v>
+        <v>1.082971118841321</v>
       </c>
       <c r="M15">
-        <v>1.030380062697394</v>
+        <v>1.089583667736538</v>
       </c>
       <c r="N15">
-        <v>1.030555705892549</v>
+        <v>1.073824632418762</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.005287861124532</v>
+        <v>1.066890386622664</v>
       </c>
       <c r="D16">
-        <v>1.020548299790298</v>
+        <v>1.061735797953572</v>
       </c>
       <c r="E16">
-        <v>1.021360428333754</v>
+        <v>1.080502304955713</v>
       </c>
       <c r="F16">
-        <v>1.0215224754325</v>
+        <v>1.087224874557873</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044129130085765</v>
+        <v>1.050986970810444</v>
       </c>
       <c r="J16">
-        <v>1.033217120841955</v>
+        <v>1.073001755382389</v>
       </c>
       <c r="K16">
-        <v>1.034520583261208</v>
+        <v>1.065084034084724</v>
       </c>
       <c r="L16">
-        <v>1.035318856594956</v>
+        <v>1.083788381962338</v>
       </c>
       <c r="M16">
-        <v>1.035478142515778</v>
+        <v>1.090489256542724</v>
       </c>
       <c r="N16">
-        <v>1.034684407665211</v>
+        <v>1.074525540950053</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.008616666822153</v>
+        <v>1.06746262041643</v>
       </c>
       <c r="D17">
-        <v>1.023040377350991</v>
+        <v>1.06216828925276</v>
       </c>
       <c r="E17">
-        <v>1.024602973193638</v>
+        <v>1.08108457579255</v>
       </c>
       <c r="F17">
-        <v>1.025026730283916</v>
+        <v>1.087862298948141</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045398201062471</v>
+        <v>1.051171550594682</v>
       </c>
       <c r="J17">
-        <v>1.035747699402604</v>
+        <v>1.073440145989355</v>
       </c>
       <c r="K17">
-        <v>1.036656135688617</v>
+        <v>1.065445399342589</v>
       </c>
       <c r="L17">
-        <v>1.038192949588822</v>
+        <v>1.084300474666388</v>
       </c>
       <c r="M17">
-        <v>1.038609732355628</v>
+        <v>1.091056832175506</v>
       </c>
       <c r="N17">
-        <v>1.037218579937677</v>
+        <v>1.074964554121965</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.010533714869293</v>
+        <v>1.067796212873001</v>
       </c>
       <c r="D18">
-        <v>1.024476231333675</v>
+        <v>1.062420388574467</v>
       </c>
       <c r="E18">
-        <v>1.026471195794387</v>
+        <v>1.081424066444807</v>
       </c>
       <c r="F18">
-        <v>1.027045858916633</v>
+        <v>1.088233984946521</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046127837209215</v>
+        <v>1.051278975851378</v>
       </c>
       <c r="J18">
-        <v>1.037204593857477</v>
+        <v>1.073695620561082</v>
       </c>
       <c r="K18">
-        <v>1.037885437037287</v>
+        <v>1.065655942911719</v>
       </c>
       <c r="L18">
-        <v>1.039848127310575</v>
+        <v>1.084598972038928</v>
       </c>
       <c r="M18">
-        <v>1.040413523480914</v>
+        <v>1.091387720352803</v>
       </c>
       <c r="N18">
-        <v>1.038677543349784</v>
+        <v>1.075220391496888</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.011183314385112</v>
+        <v>1.067909928686153</v>
       </c>
       <c r="D19">
-        <v>1.024962885550777</v>
+        <v>1.062506320011052</v>
       </c>
       <c r="E19">
-        <v>1.027104392650856</v>
+        <v>1.081539800801109</v>
       </c>
       <c r="F19">
-        <v>1.027730223954716</v>
+        <v>1.088360701386784</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046374868204865</v>
+        <v>1.051315564975605</v>
       </c>
       <c r="J19">
-        <v>1.037698188310421</v>
+        <v>1.073782691753564</v>
       </c>
       <c r="K19">
-        <v>1.038301893117096</v>
+        <v>1.06572769317695</v>
       </c>
       <c r="L19">
-        <v>1.040408988156755</v>
+        <v>1.08470071862401</v>
       </c>
       <c r="M19">
-        <v>1.041024797644065</v>
+        <v>1.091500516230447</v>
       </c>
       <c r="N19">
-        <v>1.039171838763467</v>
+        <v>1.07530758634045</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.008262086313743</v>
+        <v>1.06740124401369</v>
       </c>
       <c r="D20">
-        <v>1.022774852742705</v>
+        <v>1.0621219041903</v>
       </c>
       <c r="E20">
-        <v>1.024257491947199</v>
+        <v>1.081022117981254</v>
       </c>
       <c r="F20">
-        <v>1.024653352717479</v>
+        <v>1.087793921081173</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045263147019597</v>
+        <v>1.051151771466959</v>
       </c>
       <c r="J20">
-        <v>1.035478192023441</v>
+        <v>1.073393134791413</v>
       </c>
       <c r="K20">
-        <v>1.036428716129653</v>
+        <v>1.06540665258059</v>
       </c>
       <c r="L20">
-        <v>1.03788680426641</v>
+        <v>1.0842455524607</v>
       </c>
       <c r="M20">
-        <v>1.038276125430295</v>
+        <v>1.090995954228864</v>
       </c>
       <c r="N20">
-        <v>1.036948689827123</v>
+        <v>1.07491747616273</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9984675652736188</v>
+        <v>1.065745305216132</v>
       </c>
       <c r="D21">
-        <v>1.015447215708073</v>
+        <v>1.060870173570895</v>
       </c>
       <c r="E21">
-        <v>1.014722671232458</v>
+        <v>1.079337440481843</v>
       </c>
       <c r="F21">
-        <v>1.014349649920904</v>
+        <v>1.085949917236397</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041521179923125</v>
+        <v>1.050616470672249</v>
       </c>
       <c r="J21">
-        <v>1.028029496970385</v>
+        <v>1.072123915242665</v>
       </c>
       <c r="K21">
-        <v>1.030141728762678</v>
+        <v>1.064360148896724</v>
       </c>
       <c r="L21">
-        <v>1.02943038520494</v>
+        <v>1.082763424061033</v>
       </c>
       <c r="M21">
-        <v>1.029064169768856</v>
+        <v>1.089353569074239</v>
       </c>
       <c r="N21">
-        <v>1.029489416772715</v>
+        <v>1.073646454176642</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9920613325751844</v>
+        <v>1.064702455722831</v>
       </c>
       <c r="D22">
-        <v>1.010662129207419</v>
+        <v>1.060081632728405</v>
       </c>
       <c r="E22">
-        <v>1.008494906751667</v>
+        <v>1.078276918622072</v>
       </c>
       <c r="F22">
-        <v>1.007620454806309</v>
+        <v>1.084789441624668</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03906296498864</v>
+        <v>1.050277750302088</v>
       </c>
       <c r="J22">
-        <v>1.023153959898814</v>
+        <v>1.071323779651954</v>
       </c>
       <c r="K22">
-        <v>1.026025285547129</v>
+        <v>1.063700021142738</v>
       </c>
       <c r="L22">
-        <v>1.023899935592973</v>
+        <v>1.081829720713203</v>
       </c>
       <c r="M22">
-        <v>1.023042445631778</v>
+        <v>1.088319358030123</v>
       </c>
       <c r="N22">
-        <v>1.02460695587927</v>
+        <v>1.072845182301615</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9954823012579151</v>
+        <v>1.065255453409852</v>
       </c>
       <c r="D23">
-        <v>1.013216610358864</v>
+        <v>1.06049979978831</v>
       </c>
       <c r="E23">
-        <v>1.011819732938344</v>
+        <v>1.078839247027931</v>
       </c>
       <c r="F23">
-        <v>1.011212925898664</v>
+        <v>1.08540473674896</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040376639157444</v>
+        <v>1.050457517685093</v>
       </c>
       <c r="J23">
-        <v>1.025757833045092</v>
+        <v>1.071748150389983</v>
       </c>
       <c r="K23">
-        <v>1.028223857096489</v>
+        <v>1.064050172801546</v>
       </c>
       <c r="L23">
-        <v>1.026853144960064</v>
+        <v>1.082324870451369</v>
       </c>
       <c r="M23">
-        <v>1.026257733600343</v>
+        <v>1.088867765154355</v>
       </c>
       <c r="N23">
-        <v>1.027214526824084</v>
+        <v>1.073270155694768</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.008422381688613</v>
+        <v>1.06742897793029</v>
       </c>
       <c r="D24">
-        <v>1.022894886492547</v>
+        <v>1.062142864115178</v>
       </c>
       <c r="E24">
-        <v>1.024413671174325</v>
+        <v>1.08105034040465</v>
       </c>
       <c r="F24">
-        <v>1.024822142459411</v>
+        <v>1.087824818445003</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045324204753182</v>
+        <v>1.05116070953586</v>
       </c>
       <c r="J24">
-        <v>1.035600029776791</v>
+        <v>1.073414377842978</v>
       </c>
       <c r="K24">
-        <v>1.036531527531789</v>
+        <v>1.065424161299839</v>
       </c>
       <c r="L24">
-        <v>1.038025203539265</v>
+        <v>1.084270370052299</v>
       </c>
       <c r="M24">
-        <v>1.038426938281589</v>
+        <v>1.091023462875231</v>
       </c>
       <c r="N24">
-        <v>1.037070700604058</v>
+        <v>1.074938749381865</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.022483541474002</v>
+        <v>1.06994412784079</v>
       </c>
       <c r="D25">
-        <v>1.033436900836947</v>
+        <v>1.064043073625221</v>
       </c>
       <c r="E25">
-        <v>1.038130963303202</v>
+        <v>1.08361080211424</v>
       </c>
       <c r="F25">
-        <v>1.039649953866743</v>
+        <v>1.090628791553356</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050653714821187</v>
+        <v>1.051967437353373</v>
       </c>
       <c r="J25">
-        <v>1.046277233585549</v>
+        <v>1.075338892383888</v>
       </c>
       <c r="K25">
-        <v>1.045537415167852</v>
+        <v>1.067009410434401</v>
       </c>
       <c r="L25">
-        <v>1.050164838584996</v>
+        <v>1.086520286216607</v>
       </c>
       <c r="M25">
-        <v>1.051662427679638</v>
+        <v>1.093518424860632</v>
       </c>
       <c r="N25">
-        <v>1.047763067266917</v>
+        <v>1.076865996954169</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_162/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_162/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.071944773141773</v>
+        <v>1.033044146350303</v>
       </c>
       <c r="D2">
-        <v>1.065553645872923</v>
+        <v>1.041369009612235</v>
       </c>
       <c r="E2">
-        <v>1.08564895773982</v>
+        <v>1.048456369860728</v>
       </c>
       <c r="F2">
-        <v>1.09286200330311</v>
+        <v>1.050816416820991</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05260349743665</v>
+        <v>1.054616464102886</v>
       </c>
       <c r="J2">
-        <v>1.076866809375162</v>
+        <v>1.054279514437085</v>
       </c>
       <c r="K2">
-        <v>1.068266574889631</v>
+        <v>1.052280592821005</v>
       </c>
       <c r="L2">
-        <v>1.088308842025091</v>
+        <v>1.059279514995177</v>
       </c>
       <c r="M2">
-        <v>1.095503360871276</v>
+        <v>1.061610442096961</v>
       </c>
       <c r="N2">
-        <v>1.078396083762825</v>
+        <v>1.055776712275137</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.073394417564274</v>
+        <v>1.040380438944433</v>
       </c>
       <c r="D3">
-        <v>1.066647634065784</v>
+        <v>1.046885367799821</v>
       </c>
       <c r="E3">
-        <v>1.087126625846894</v>
+        <v>1.055641485002651</v>
       </c>
       <c r="F3">
-        <v>1.09448179813807</v>
+        <v>1.05859035074183</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05306110335575</v>
+        <v>1.057345045063996</v>
       </c>
       <c r="J3">
-        <v>1.077972225130458</v>
+        <v>1.059827711213106</v>
       </c>
       <c r="K3">
-        <v>1.069175288265812</v>
+        <v>1.056951529957392</v>
       </c>
       <c r="L3">
-        <v>1.089604159099629</v>
+        <v>1.065608682085842</v>
       </c>
       <c r="M3">
-        <v>1.096941821713494</v>
+        <v>1.068524671966764</v>
       </c>
       <c r="N3">
-        <v>1.079503069335286</v>
+        <v>1.061332788126967</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.074331094205834</v>
+        <v>1.044987745382624</v>
       </c>
       <c r="D4">
-        <v>1.067354243437833</v>
+        <v>1.050351833399201</v>
       </c>
       <c r="E4">
-        <v>1.08808179810815</v>
+        <v>1.060159179804322</v>
       </c>
       <c r="F4">
-        <v>1.095529171945591</v>
+        <v>1.063480084676896</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053355264646675</v>
+        <v>1.059047045015463</v>
       </c>
       <c r="J4">
-        <v>1.078685694945682</v>
+        <v>1.063306698052076</v>
       </c>
       <c r="K4">
-        <v>1.069761419457152</v>
+        <v>1.059878286988508</v>
       </c>
       <c r="L4">
-        <v>1.090440816118226</v>
+        <v>1.069581958090811</v>
       </c>
       <c r="M4">
-        <v>1.097871363299531</v>
+        <v>1.072868286167657</v>
       </c>
       <c r="N4">
-        <v>1.080217552359484</v>
+        <v>1.064816715526293</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.074724558930572</v>
+        <v>1.046893040838602</v>
       </c>
       <c r="D5">
-        <v>1.067651001250119</v>
+        <v>1.051785759195341</v>
       </c>
       <c r="E5">
-        <v>1.088483124836999</v>
+        <v>1.062028653920457</v>
       </c>
       <c r="F5">
-        <v>1.095969317460608</v>
+        <v>1.06550397191502</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053478467872524</v>
+        <v>1.059748052875041</v>
       </c>
       <c r="J5">
-        <v>1.078985209890603</v>
+        <v>1.064744054844268</v>
       </c>
       <c r="K5">
-        <v>1.070007386106912</v>
+        <v>1.061086949985248</v>
       </c>
       <c r="L5">
-        <v>1.090792193550103</v>
+        <v>1.071224645819488</v>
       </c>
       <c r="M5">
-        <v>1.098261852506322</v>
+        <v>1.074664830067712</v>
       </c>
       <c r="N5">
-        <v>1.080517492649981</v>
+        <v>1.066256113529997</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.074790605162818</v>
+        <v>1.04721114514043</v>
       </c>
       <c r="D6">
-        <v>1.067700810678897</v>
+        <v>1.052025186119035</v>
       </c>
       <c r="E6">
-        <v>1.088550496194291</v>
+        <v>1.062340849106422</v>
       </c>
       <c r="F6">
-        <v>1.096043210042059</v>
+        <v>1.065841981166987</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053499127201512</v>
+        <v>1.059864923620293</v>
       </c>
       <c r="J6">
-        <v>1.079035474831022</v>
+        <v>1.064983953138644</v>
       </c>
       <c r="K6">
-        <v>1.07004865913612</v>
+        <v>1.061288646443751</v>
       </c>
       <c r="L6">
-        <v>1.090851170826319</v>
+        <v>1.071498880231151</v>
       </c>
       <c r="M6">
-        <v>1.098327400540125</v>
+        <v>1.074964793855736</v>
       </c>
       <c r="N6">
-        <v>1.080567828972381</v>
+        <v>1.066496352507467</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.074336352926749</v>
+        <v>1.045013325938026</v>
       </c>
       <c r="D7">
-        <v>1.06735820990678</v>
+        <v>1.050371083823858</v>
       </c>
       <c r="E7">
-        <v>1.088087161542272</v>
+        <v>1.060184274581468</v>
       </c>
       <c r="F7">
-        <v>1.095535053852327</v>
+        <v>1.063507250363275</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053356912707372</v>
+        <v>1.059056468050183</v>
       </c>
       <c r="J7">
-        <v>1.078689698753554</v>
+        <v>1.063326001396954</v>
       </c>
       <c r="K7">
-        <v>1.069764707810813</v>
+        <v>1.059894521192095</v>
       </c>
       <c r="L7">
-        <v>1.090445512621158</v>
+        <v>1.069604014552491</v>
       </c>
       <c r="M7">
-        <v>1.097876582167184</v>
+        <v>1.072892405495744</v>
       </c>
       <c r="N7">
-        <v>1.080221561853222</v>
+        <v>1.064836046284135</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.072434968819754</v>
+        <v>1.035553580108398</v>
       </c>
       <c r="D8">
-        <v>1.06592363069829</v>
+        <v>1.043255416666434</v>
       </c>
       <c r="E8">
-        <v>1.086148548919176</v>
+        <v>1.0509129402606</v>
       </c>
       <c r="F8">
-        <v>1.093409578449149</v>
+        <v>1.053473935017257</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052758550671624</v>
+        <v>1.055552208795524</v>
       </c>
       <c r="J8">
-        <v>1.077240767258536</v>
+        <v>1.056178418873764</v>
       </c>
       <c r="K8">
-        <v>1.068574067899686</v>
+        <v>1.053879688466065</v>
       </c>
       <c r="L8">
-        <v>1.088746914564413</v>
+        <v>1.061444751710897</v>
       </c>
       <c r="M8">
-        <v>1.095989755856039</v>
+        <v>1.063975195700863</v>
       </c>
       <c r="N8">
-        <v>1.078770572709287</v>
+        <v>1.057678313373923</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.069073920698476</v>
+        <v>1.017722051436342</v>
       </c>
       <c r="D9">
-        <v>1.063385768519854</v>
+        <v>1.029864411621206</v>
       </c>
       <c r="E9">
-        <v>1.08272468937009</v>
+        <v>1.033482066720127</v>
       </c>
       <c r="F9">
-        <v>1.089658217309772</v>
+        <v>1.034623963207981</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051689194345187</v>
+        <v>1.04885520205798</v>
       </c>
       <c r="J9">
-        <v>1.07467348790553</v>
+        <v>1.042664153651298</v>
       </c>
       <c r="K9">
-        <v>1.066461524273191</v>
+        <v>1.042490853718656</v>
       </c>
       <c r="L9">
-        <v>1.08574201807699</v>
+        <v>1.046054312154171</v>
       </c>
       <c r="M9">
-        <v>1.092655147966015</v>
+        <v>1.047179201771631</v>
       </c>
       <c r="N9">
-        <v>1.076199647525128</v>
+        <v>1.044144856344733</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.066825693902878</v>
+        <v>1.004908263723853</v>
       </c>
       <c r="D10">
-        <v>1.061686899753212</v>
+        <v>1.020264214495487</v>
       </c>
       <c r="E10">
-        <v>1.080436483882926</v>
+        <v>1.020990786236499</v>
       </c>
       <c r="F10">
-        <v>1.087152823993632</v>
+        <v>1.021123014323654</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050966079381606</v>
+        <v>1.043984248029694</v>
       </c>
       <c r="J10">
-        <v>1.072952181588993</v>
+        <v>1.032928487984036</v>
       </c>
       <c r="K10">
-        <v>1.065043164462324</v>
+        <v>1.034276983908498</v>
       </c>
       <c r="L10">
-        <v>1.083730483649676</v>
+        <v>1.034991113447935</v>
       </c>
       <c r="M10">
-        <v>1.090425091971111</v>
+        <v>1.035121079651382</v>
       </c>
       <c r="N10">
-        <v>1.074475896756185</v>
+        <v>1.034395364915527</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.06585030648002</v>
+        <v>0.9991020831820635</v>
       </c>
       <c r="D11">
-        <v>1.060949558945749</v>
+        <v>1.015921503523861</v>
       </c>
       <c r="E11">
-        <v>1.079444239206645</v>
+        <v>1.0153398804517</v>
       </c>
       <c r="F11">
-        <v>1.086066796232749</v>
+        <v>1.01501658045788</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050650507337453</v>
+        <v>1.041764223376936</v>
       </c>
       <c r="J11">
-        <v>1.072204443389148</v>
+        <v>1.02851226431157</v>
       </c>
       <c r="K11">
-        <v>1.064426569507301</v>
+        <v>1.030549282637252</v>
       </c>
       <c r="L11">
-        <v>1.082857422504758</v>
+        <v>1.029978193452524</v>
       </c>
       <c r="M11">
-        <v>1.089457704933295</v>
+        <v>1.029660755597488</v>
       </c>
       <c r="N11">
-        <v>1.07372709668233</v>
+        <v>1.029972869698898</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.06548771190319</v>
+        <v>0.9969029290236741</v>
       </c>
       <c r="D12">
-        <v>1.06067541408102</v>
+        <v>1.014277942811748</v>
       </c>
       <c r="E12">
-        <v>1.079075451645404</v>
+        <v>1.013201000276807</v>
       </c>
       <c r="F12">
-        <v>1.085663211739821</v>
+        <v>1.012705418846818</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050532917524617</v>
+        <v>1.040921521562432</v>
       </c>
       <c r="J12">
-        <v>1.071926333063435</v>
+        <v>1.026838943287989</v>
       </c>
       <c r="K12">
-        <v>1.064197167634204</v>
+        <v>1.029136618592494</v>
       </c>
       <c r="L12">
-        <v>1.08253281298171</v>
+        <v>1.028079585984194</v>
       </c>
       <c r="M12">
-        <v>1.089098102208616</v>
+        <v>1.027593185145386</v>
       </c>
       <c r="N12">
-        <v>1.073448591408054</v>
+        <v>1.028297172367531</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.065565503029176</v>
+        <v>0.9973766432948868</v>
       </c>
       <c r="D13">
-        <v>1.060734231102331</v>
+        <v>1.014631916731759</v>
       </c>
       <c r="E13">
-        <v>1.07915456807951</v>
+        <v>1.013661663577864</v>
       </c>
       <c r="F13">
-        <v>1.085749790515791</v>
+        <v>1.01320318208254</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050558157833711</v>
+        <v>1.041103127398502</v>
       </c>
       <c r="J13">
-        <v>1.071986005384659</v>
+        <v>1.027199415906285</v>
       </c>
       <c r="K13">
-        <v>1.064246391987952</v>
+        <v>1.029440949080601</v>
       </c>
       <c r="L13">
-        <v>1.082602457230898</v>
+        <v>1.028488554683743</v>
       </c>
       <c r="M13">
-        <v>1.089175250655764</v>
+        <v>1.028038527639236</v>
       </c>
       <c r="N13">
-        <v>1.073508348470819</v>
+        <v>1.028658156898291</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.065820340309101</v>
+        <v>0.9989211905426857</v>
       </c>
       <c r="D14">
-        <v>1.060926903455277</v>
+        <v>1.015786284261723</v>
       </c>
       <c r="E14">
-        <v>1.079413759721132</v>
+        <v>1.015163915498472</v>
       </c>
       <c r="F14">
-        <v>1.086033439646195</v>
+        <v>1.014826439491591</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050640794938851</v>
+        <v>1.041694943263375</v>
       </c>
       <c r="J14">
-        <v>1.072181462227554</v>
+        <v>1.028374636529574</v>
       </c>
       <c r="K14">
-        <v>1.064407614675921</v>
+        <v>1.030433097777999</v>
       </c>
       <c r="L14">
-        <v>1.082830596663343</v>
+        <v>1.029822020084245</v>
       </c>
       <c r="M14">
-        <v>1.089427985657098</v>
+        <v>1.029490674131194</v>
       </c>
       <c r="N14">
-        <v>1.073704082884849</v>
+        <v>1.029835046469666</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.065977314993051</v>
+        <v>0.9998670869935777</v>
       </c>
       <c r="D15">
-        <v>1.061045580153263</v>
+        <v>1.016493405902245</v>
       </c>
       <c r="E15">
-        <v>1.079573426365808</v>
+        <v>1.016084104788732</v>
       </c>
       <c r="F15">
-        <v>1.086208180403114</v>
+        <v>1.015820765938791</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050691660964264</v>
+        <v>1.042057138059514</v>
       </c>
       <c r="J15">
-        <v>1.072301840810072</v>
+        <v>1.029094273984726</v>
       </c>
       <c r="K15">
-        <v>1.064506899973616</v>
+        <v>1.031040604092377</v>
       </c>
       <c r="L15">
-        <v>1.082971118841321</v>
+        <v>1.030638662472785</v>
       </c>
       <c r="M15">
-        <v>1.089583667736538</v>
+        <v>1.030380062697393</v>
       </c>
       <c r="N15">
-        <v>1.073824632418762</v>
+        <v>1.030555705892547</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.066890386622664</v>
+        <v>1.005287861124533</v>
       </c>
       <c r="D16">
-        <v>1.061735797953572</v>
+        <v>1.020548299790298</v>
       </c>
       <c r="E16">
-        <v>1.080502304955713</v>
+        <v>1.021360428333755</v>
       </c>
       <c r="F16">
-        <v>1.087224874557873</v>
+        <v>1.0215224754325</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.050986970810444</v>
+        <v>1.044129130085765</v>
       </c>
       <c r="J16">
-        <v>1.073001755382389</v>
+        <v>1.033217120841955</v>
       </c>
       <c r="K16">
-        <v>1.065084034084724</v>
+        <v>1.034520583261209</v>
       </c>
       <c r="L16">
-        <v>1.083788381962338</v>
+        <v>1.035318856594956</v>
       </c>
       <c r="M16">
-        <v>1.090489256542724</v>
+        <v>1.035478142515778</v>
       </c>
       <c r="N16">
-        <v>1.074525540950053</v>
+        <v>1.034684407665212</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.06746262041643</v>
+        <v>1.008616666822152</v>
       </c>
       <c r="D17">
-        <v>1.06216828925276</v>
+        <v>1.02304037735099</v>
       </c>
       <c r="E17">
-        <v>1.08108457579255</v>
+        <v>1.024602973193637</v>
       </c>
       <c r="F17">
-        <v>1.087862298948141</v>
+        <v>1.025026730283914</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051171550594682</v>
+        <v>1.04539820106247</v>
       </c>
       <c r="J17">
-        <v>1.073440145989355</v>
+        <v>1.035747699402603</v>
       </c>
       <c r="K17">
-        <v>1.065445399342589</v>
+        <v>1.036656135688616</v>
       </c>
       <c r="L17">
-        <v>1.084300474666388</v>
+        <v>1.03819294958882</v>
       </c>
       <c r="M17">
-        <v>1.091056832175506</v>
+        <v>1.038609732355627</v>
       </c>
       <c r="N17">
-        <v>1.074964554121965</v>
+        <v>1.037218579937676</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.067796212873001</v>
+        <v>1.010533714869294</v>
       </c>
       <c r="D18">
-        <v>1.062420388574467</v>
+        <v>1.024476231333676</v>
       </c>
       <c r="E18">
-        <v>1.081424066444807</v>
+        <v>1.026471195794388</v>
       </c>
       <c r="F18">
-        <v>1.088233984946521</v>
+        <v>1.027045858916634</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051278975851378</v>
+        <v>1.046127837209216</v>
       </c>
       <c r="J18">
-        <v>1.073695620561082</v>
+        <v>1.037204593857479</v>
       </c>
       <c r="K18">
-        <v>1.065655942911719</v>
+        <v>1.037885437037288</v>
       </c>
       <c r="L18">
-        <v>1.084598972038928</v>
+        <v>1.039848127310576</v>
       </c>
       <c r="M18">
-        <v>1.091387720352803</v>
+        <v>1.040413523480916</v>
       </c>
       <c r="N18">
-        <v>1.075220391496888</v>
+        <v>1.038677543349786</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.067909928686153</v>
+        <v>1.011183314385111</v>
       </c>
       <c r="D19">
-        <v>1.062506320011052</v>
+        <v>1.024962885550776</v>
       </c>
       <c r="E19">
-        <v>1.081539800801109</v>
+        <v>1.027104392650855</v>
       </c>
       <c r="F19">
-        <v>1.088360701386784</v>
+        <v>1.027730223954715</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051315564975605</v>
+        <v>1.046374868204864</v>
       </c>
       <c r="J19">
-        <v>1.073782691753564</v>
+        <v>1.03769818831042</v>
       </c>
       <c r="K19">
-        <v>1.06572769317695</v>
+        <v>1.038301893117096</v>
       </c>
       <c r="L19">
-        <v>1.08470071862401</v>
+        <v>1.040408988156754</v>
       </c>
       <c r="M19">
-        <v>1.091500516230447</v>
+        <v>1.041024797644065</v>
       </c>
       <c r="N19">
-        <v>1.07530758634045</v>
+        <v>1.039171838763467</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.06740124401369</v>
+        <v>1.008262086313743</v>
       </c>
       <c r="D20">
-        <v>1.0621219041903</v>
+        <v>1.022774852742705</v>
       </c>
       <c r="E20">
-        <v>1.081022117981254</v>
+        <v>1.024257491947199</v>
       </c>
       <c r="F20">
-        <v>1.087793921081173</v>
+        <v>1.02465335271748</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051151771466959</v>
+        <v>1.045263147019597</v>
       </c>
       <c r="J20">
-        <v>1.073393134791413</v>
+        <v>1.035478192023442</v>
       </c>
       <c r="K20">
-        <v>1.06540665258059</v>
+        <v>1.036428716129653</v>
       </c>
       <c r="L20">
-        <v>1.0842455524607</v>
+        <v>1.037886804266411</v>
       </c>
       <c r="M20">
-        <v>1.090995954228864</v>
+        <v>1.038276125430295</v>
       </c>
       <c r="N20">
-        <v>1.07491747616273</v>
+        <v>1.036948689827124</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.065745305216132</v>
+        <v>0.9984675652736196</v>
       </c>
       <c r="D21">
-        <v>1.060870173570895</v>
+        <v>1.015447215708074</v>
       </c>
       <c r="E21">
-        <v>1.079337440481843</v>
+        <v>1.014722671232458</v>
       </c>
       <c r="F21">
-        <v>1.085949917236397</v>
+        <v>1.014349649920905</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050616470672249</v>
+        <v>1.041521179923125</v>
       </c>
       <c r="J21">
-        <v>1.072123915242665</v>
+        <v>1.028029496970386</v>
       </c>
       <c r="K21">
-        <v>1.064360148896724</v>
+        <v>1.030141728762678</v>
       </c>
       <c r="L21">
-        <v>1.082763424061033</v>
+        <v>1.029430385204941</v>
       </c>
       <c r="M21">
-        <v>1.089353569074239</v>
+        <v>1.029064169768856</v>
       </c>
       <c r="N21">
-        <v>1.073646454176642</v>
+        <v>1.029489416772716</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.064702455722831</v>
+        <v>0.9920613325751859</v>
       </c>
       <c r="D22">
-        <v>1.060081632728405</v>
+        <v>1.010662129207421</v>
       </c>
       <c r="E22">
-        <v>1.078276918622072</v>
+        <v>1.008494906751668</v>
       </c>
       <c r="F22">
-        <v>1.084789441624668</v>
+        <v>1.007620454806311</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.050277750302088</v>
+        <v>1.03906296498864</v>
       </c>
       <c r="J22">
-        <v>1.071323779651954</v>
+        <v>1.023153959898816</v>
       </c>
       <c r="K22">
-        <v>1.063700021142738</v>
+        <v>1.02602528554713</v>
       </c>
       <c r="L22">
-        <v>1.081829720713203</v>
+        <v>1.023899935592975</v>
       </c>
       <c r="M22">
-        <v>1.088319358030123</v>
+        <v>1.023042445631779</v>
       </c>
       <c r="N22">
-        <v>1.072845182301615</v>
+        <v>1.024606955879271</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.065255453409852</v>
+        <v>0.9954823012579119</v>
       </c>
       <c r="D23">
-        <v>1.06049979978831</v>
+        <v>1.01321661035886</v>
       </c>
       <c r="E23">
-        <v>1.078839247027931</v>
+        <v>1.011819732938341</v>
       </c>
       <c r="F23">
-        <v>1.08540473674896</v>
+        <v>1.01121292589866</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050457517685093</v>
+        <v>1.040376639157442</v>
       </c>
       <c r="J23">
-        <v>1.071748150389983</v>
+        <v>1.025757833045089</v>
       </c>
       <c r="K23">
-        <v>1.064050172801546</v>
+        <v>1.028223857096486</v>
       </c>
       <c r="L23">
-        <v>1.082324870451369</v>
+        <v>1.026853144960061</v>
       </c>
       <c r="M23">
-        <v>1.088867765154355</v>
+        <v>1.02625773360034</v>
       </c>
       <c r="N23">
-        <v>1.073270155694768</v>
+        <v>1.027214526824081</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.06742897793029</v>
+        <v>1.008422381688612</v>
       </c>
       <c r="D24">
-        <v>1.062142864115178</v>
+        <v>1.022894886492547</v>
       </c>
       <c r="E24">
-        <v>1.08105034040465</v>
+        <v>1.024413671174324</v>
       </c>
       <c r="F24">
-        <v>1.087824818445003</v>
+        <v>1.02482214245941</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.05116070953586</v>
+        <v>1.045324204753182</v>
       </c>
       <c r="J24">
-        <v>1.073414377842978</v>
+        <v>1.03560002977679</v>
       </c>
       <c r="K24">
-        <v>1.065424161299839</v>
+        <v>1.036531527531788</v>
       </c>
       <c r="L24">
-        <v>1.084270370052299</v>
+        <v>1.038025203539264</v>
       </c>
       <c r="M24">
-        <v>1.091023462875231</v>
+        <v>1.038426938281588</v>
       </c>
       <c r="N24">
-        <v>1.074938749381865</v>
+        <v>1.037070700604057</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.06994412784079</v>
+        <v>1.022483541474002</v>
       </c>
       <c r="D25">
-        <v>1.064043073625221</v>
+        <v>1.033436900836947</v>
       </c>
       <c r="E25">
-        <v>1.08361080211424</v>
+        <v>1.038130963303203</v>
       </c>
       <c r="F25">
-        <v>1.090628791553356</v>
+        <v>1.039649953866743</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051967437353373</v>
+        <v>1.050653714821187</v>
       </c>
       <c r="J25">
-        <v>1.075338892383888</v>
+        <v>1.04627723358555</v>
       </c>
       <c r="K25">
-        <v>1.067009410434401</v>
+        <v>1.045537415167852</v>
       </c>
       <c r="L25">
-        <v>1.086520286216607</v>
+        <v>1.050164838584997</v>
       </c>
       <c r="M25">
-        <v>1.093518424860632</v>
+        <v>1.051662427679638</v>
       </c>
       <c r="N25">
-        <v>1.076865996954169</v>
+        <v>1.047763067266918</v>
       </c>
     </row>
   </sheetData>
